--- a/EXCEL Projects/XLOOKUP Excel Tutorial File.xlsx
+++ b/EXCEL Projects/XLOOKUP Excel Tutorial File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PortfolioProjects\EXCEL Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3F0106-3D72-4251-B002-B7C53E27C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D244B000-9E64-4E6A-A256-C0E0F4B81105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="2" activeTab="7" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{5EA44D8F-79D3-45F5-A0F6-C7F47358B7ED}"/>
   </bookViews>
   <sheets>
     <sheet name="XLookUp" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,8 @@
     <sheet name="XLookUp Exact Match" sheetId="8" r:id="rId3"/>
     <sheet name="XLookUp Search Order" sheetId="9" r:id="rId4"/>
     <sheet name="XLookUp Horizontal" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
-    <sheet name="XLookUp w SUM" sheetId="7" r:id="rId7"/>
-    <sheet name="VLookUp" sheetId="2" r:id="rId8"/>
+    <sheet name="XLookUp w SUM" sheetId="7" r:id="rId6"/>
+    <sheet name="VLookUp" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -698,7 +697,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1119,58 +1118,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF05A7-3704-402E-8684-C856D6F82881}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="41.6328125" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.54296875" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1180,351 +1179,354 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
+      <c r="D2">
         <v>1001</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="K2">
         <v>45000</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="str" cm="1">
-        <f t="array" ref="B3:C3">_xlfn.XLOOKUP(A3,I2:I10,O2:P10)</f>
+        <f t="array" ref="B3:C3">_xlfn.XLOOKUP(A3,G2:G10,M2:N10)</f>
         <v>8/30/2017</v>
       </c>
       <c r="C3" t="str">
         <v>Toby.Flenderson@DunderMifflinCorporate.com</v>
       </c>
-      <c r="F3">
+      <c r="D3">
         <v>1002</v>
       </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
       <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+        <v>62</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="M3">
+      <c r="K3">
         <v>36000</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="F4">
+      <c r="D4">
         <v>1003</v>
       </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
       </c>
-      <c r="M4">
+      <c r="K4">
         <v>63000</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="e">
-        <f>_xlfn.XLOOKUP(A3,I2:I10,P7:P10,"Not Found")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5">
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5:C5">_xlfn.XLOOKUP(A3,G2:G10,M2:N10)</f>
+        <v>8/30/2017</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Toby.Flenderson@DunderMifflinCorporate.com</v>
+      </c>
+      <c r="D5">
         <v>1004</v>
       </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="H5">
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5">
+      <c r="K5">
         <v>47000</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="F6">
+      <c r="D6">
         <v>1005</v>
       </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>50000</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>1006</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6">
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>65000</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>1007</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8">
+        <v>41000</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>1008</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6">
-        <v>50000</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F7">
-        <v>1006</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>48000</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>1009</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7">
-        <v>65000</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F8">
-        <v>1007</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8">
-        <v>41000</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F9">
-        <v>1008</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9">
-        <v>48000</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>42000</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F10">
-        <v>1009</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10">
-        <v>42000</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I22" t="str">
-        <f t="shared" ref="I22:I23" si="0">CONCATENATE(G12," ",H12)</f>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G22" t="str">
+        <f t="shared" ref="G22:G23" si="0">CONCATENATE(E12," ",F12)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I23" t="str">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
@@ -2347,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CCAA7F-6F85-4102-B7D4-D80770622F9F}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2544,24 +2546,18 @@
         <v>180</v>
       </c>
     </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>_xlfn.XLOOKUP(I1,H1:S1,H2:S2)</f>
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2C939F-CB41-4512-A68F-ED8A3F3BFD3A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2549A4-3A41-4806-B7FD-3B9C6823775F}">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -2779,18 +2775,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F9C169-12D8-441E-870D-6C6EF0F6521C}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
     <col min="16" max="16" width="39.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2878,7 +2875,7 @@
         <v>63</v>
       </c>
       <c r="B3" t="str">
-        <f>VLOOKUP(A3, H2:P10, 9, FALSE)</f>
+        <f>VLOOKUP(A3,H2:P10,9,FALSE)</f>
         <v>Dwight.Schrute@AOL.com</v>
       </c>
       <c r="E3">
@@ -2920,7 +2917,7 @@
         <v>66</v>
       </c>
       <c r="B4" t="str">
-        <f>VLOOKUP(A4, H2:P10, 9, FALSE)</f>
+        <f t="shared" ref="B4:B5" si="0">VLOOKUP(A4,H3:P11,9,FALSE)</f>
         <v>Michael.Scott@DunderMifflin.com</v>
       </c>
       <c r="E4">
@@ -2961,9 +2958,9 @@
       <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="e" cm="1">
-        <f t="array" ref="B5">VLOOKUP(A5,H2:P10,I6:J78,FALSE)</f>
-        <v>#REF!</v>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Stanley.Hudson@gmail.com</v>
       </c>
       <c r="E5">
         <v>1004</v>
